--- a/pfm_des/bbdd/locales.xlsx
+++ b/pfm_des/bbdd/locales.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
